--- a/data/trans_dic/P41A_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P41A_R2-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5089465594858555</v>
+        <v>0.504144979720539</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5264370673928944</v>
+        <v>0.524111766088078</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4652681742826946</v>
+        <v>0.4677833776994427</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3642755982516793</v>
+        <v>0.3597955948585123</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4956925805414294</v>
+        <v>0.4963204989277346</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4933390412958646</v>
+        <v>0.4975049147382867</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4808706357818128</v>
+        <v>0.4761854356318478</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.388582139239184</v>
+        <v>0.3933890175797524</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5154800019703398</v>
+        <v>0.5183970993991402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5294698407047131</v>
+        <v>0.5276359847315109</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4899782252206805</v>
+        <v>0.490542869184309</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3903457891099175</v>
+        <v>0.3876950430288465</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.599167873861274</v>
+        <v>0.5997319988749092</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6252607639164961</v>
+        <v>0.6206914423284013</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5666145503919643</v>
+        <v>0.5646707239450324</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4646535175724607</v>
+        <v>0.4615073020793222</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6073569395713608</v>
+        <v>0.6104026632959443</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6136178091236935</v>
+        <v>0.6164463650710214</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.59171888013381</v>
+        <v>0.5881229270809774</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4784046267851256</v>
+        <v>0.4817405238858631</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5894032070498115</v>
+        <v>0.5889523726249488</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6050550106139215</v>
+        <v>0.6031389246795018</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5640367781199691</v>
+        <v>0.5623433314059725</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4592977833188034</v>
+        <v>0.4591438291538184</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4940808500822491</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4119116882554192</v>
+        <v>0.4119116882554191</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6161038109074497</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.47881981405146</v>
+        <v>0.4750608030967851</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5187832845198893</v>
+        <v>0.5192821684774397</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.441415167246158</v>
+        <v>0.4380853196394883</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3621656966321442</v>
+        <v>0.3568040169708768</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5632947352844289</v>
+        <v>0.5629856163295625</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4662186722612353</v>
+        <v>0.465937143650766</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5131061998415115</v>
+        <v>0.513407391719226</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3843512820833214</v>
+        <v>0.3831435498916401</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5343009596153945</v>
+        <v>0.5360778297150762</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.509877292224057</v>
+        <v>0.5112798390918112</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4916330302400082</v>
+        <v>0.4936058617892189</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.383036156841114</v>
+        <v>0.3859102451861689</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5893329405798673</v>
+        <v>0.5765793187297147</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.627242652397576</v>
+        <v>0.6224923982024534</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5509619375530869</v>
+        <v>0.5430819686802374</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.472235009235772</v>
+        <v>0.4621573008560063</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6664852874553333</v>
+        <v>0.668887757525265</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5775859037259704</v>
+        <v>0.5804963020711226</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6181155965595168</v>
+        <v>0.6181141114296432</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4860054836683685</v>
+        <v>0.4830807217489824</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6115937025728949</v>
+        <v>0.6103651778296866</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5867843859576563</v>
+        <v>0.5877785218250743</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5646172917073659</v>
+        <v>0.5695759001586516</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4599591671349864</v>
+        <v>0.4618923211324658</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4184108580658574</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4253075668684407</v>
+        <v>0.4253075668684409</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5312787536619701</v>
@@ -957,7 +957,7 @@
         <v>0.3638745683607844</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3056594381678272</v>
+        <v>0.3056594381678273</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.5191232465955744</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4730650635026683</v>
+        <v>0.476217103731707</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4405315655070043</v>
+        <v>0.4337918365327445</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3735466843494124</v>
+        <v>0.3742071367892579</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3737601387069671</v>
+        <v>0.3740759064969429</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4533062277934936</v>
+        <v>0.4553847701245632</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.298094060198104</v>
+        <v>0.2998317102264405</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.293310952287965</v>
+        <v>0.2867356625840239</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2420577249118298</v>
+        <v>0.2408242332162745</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4839897862997804</v>
+        <v>0.4828668452915986</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4129710861607316</v>
+        <v>0.4106795078083639</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3682930188043478</v>
+        <v>0.366901871960633</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3475844608340571</v>
+        <v>0.347884400937535</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5577502162420388</v>
+        <v>0.5630127175712099</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5204667979351428</v>
+        <v>0.5199673782561067</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4617503582736506</v>
+        <v>0.459145384756378</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.484066878504644</v>
+        <v>0.4840842185667575</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6072027905251316</v>
+        <v>0.6047823316181978</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4227103458899</v>
+        <v>0.4285488360032165</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4468876751280165</v>
+        <v>0.4395750316154023</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3780756782886522</v>
+        <v>0.3750191329930107</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5580014739240707</v>
+        <v>0.5541869239952798</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4809860766597804</v>
+        <v>0.4781661632327405</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.446104361280828</v>
+        <v>0.4441218964563006</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4368810153222231</v>
+        <v>0.433928346291113</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.4616707581516291</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3914848954624865</v>
+        <v>0.3914848954624867</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4439907676792234</v>
+        <v>0.4445171333514408</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4424554666082432</v>
+        <v>0.444954576410975</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4329176847773923</v>
+        <v>0.4295099992257773</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3562587396019079</v>
+        <v>0.3611046778386962</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3884597517921892</v>
+        <v>0.3874499258757478</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4552213393997119</v>
+        <v>0.4522480217336486</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.429710450792002</v>
+        <v>0.4282291445586394</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3520894889258624</v>
+        <v>0.3517931464169555</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4321877482542304</v>
+        <v>0.4346528728024978</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.456086524156153</v>
+        <v>0.4571009058587617</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4385177261931901</v>
+        <v>0.4370096907391552</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3653139047436515</v>
+        <v>0.3639488730659276</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5024451004250343</v>
+        <v>0.5018473733022824</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.504461089796754</v>
+        <v>0.502929104428276</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4919708102569971</v>
+        <v>0.4896833661233466</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4347544460774404</v>
+        <v>0.4320326631885026</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.462750340239119</v>
+        <v>0.4601389983361751</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5262050345948815</v>
+        <v>0.5272092681492258</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4980054003695404</v>
+        <v>0.4977456372637505</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4230776317603503</v>
+        <v>0.4226735887213614</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4769614946029908</v>
+        <v>0.4790233804202619</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5018192857331421</v>
+        <v>0.5016400519322988</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.482501183473105</v>
+        <v>0.4829945927674184</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4178669852872103</v>
+        <v>0.4172537482473456</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.3712611475480707</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3391004364681729</v>
+        <v>0.3391004364681728</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.414858792518278</v>
+        <v>0.4146871644346571</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3844039585340475</v>
+        <v>0.3821920260689454</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3700474426509802</v>
+        <v>0.3698095522513823</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3286535239348262</v>
+        <v>0.3351365728949239</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.380673839588219</v>
+        <v>0.3796666010251199</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3078583259857459</v>
+        <v>0.3115031621230098</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3067646933910905</v>
+        <v>0.3039334853232455</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2768241542749236</v>
+        <v>0.2795404963024725</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4056735428232172</v>
+        <v>0.4083966985040238</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3508470982953976</v>
+        <v>0.3491295308836985</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3456348298084436</v>
+        <v>0.3458192141102641</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3092582878947421</v>
+        <v>0.3094498559432529</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5269750853803953</v>
+        <v>0.5213936697396724</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4718891061771522</v>
+        <v>0.4706341722137638</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4485430854381008</v>
+        <v>0.4480909377582928</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4331242597145054</v>
+        <v>0.44177935800217</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4707389632148373</v>
+        <v>0.4640892491639257</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3778789268145775</v>
+        <v>0.3809481621897584</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3796527814585068</v>
+        <v>0.3736832549650454</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3471476412047434</v>
+        <v>0.3423457697999188</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.472696433275541</v>
+        <v>0.4710876531531861</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4085105568702347</v>
+        <v>0.4053432373097822</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4000417244492636</v>
+        <v>0.3970945510487324</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.368721766396906</v>
+        <v>0.3693033580209293</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2594891319076677</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2372142698656561</v>
+        <v>0.2372142698656562</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.308340238021392</v>
@@ -1377,7 +1377,7 @@
         <v>0.3136638347603709</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3085178564654595</v>
+        <v>0.3085178564654594</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4148011604496218</v>
+        <v>0.4113902895716574</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4125182647136778</v>
+        <v>0.4134771785109881</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4604098605841343</v>
+        <v>0.4602418715694805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4949511110569681</v>
+        <v>0.517483832358154</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2448050681601302</v>
+        <v>0.244816471634003</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2353619503120694</v>
+        <v>0.2345742256473378</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.232240435462854</v>
+        <v>0.2348805387517685</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2009262227869593</v>
+        <v>0.2002234996089376</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2847553917007427</v>
+        <v>0.2874648420404303</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2795665645408917</v>
+        <v>0.2797643427142427</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2898120082302534</v>
+        <v>0.2905020935718892</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2688038863087027</v>
+        <v>0.2664244192686491</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5280716191083359</v>
+        <v>0.5263436450176138</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5313901652322012</v>
+        <v>0.5364417067259057</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5780089919107699</v>
+        <v>0.5825552677056348</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7745203700818963</v>
+        <v>0.790261559165678</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2950252374321627</v>
+        <v>0.2956846673208057</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2895576705654335</v>
+        <v>0.2889973492177991</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2890076176396132</v>
+        <v>0.2870876459329157</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2780483630758299</v>
+        <v>0.2780720735509335</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3320365980462228</v>
+        <v>0.3319583142394222</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3271026191610871</v>
+        <v>0.3272148467929205</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3400230737294994</v>
+        <v>0.342463277820184</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.354009674559952</v>
+        <v>0.3554021382646287</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.4604919772790567</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4134286567566303</v>
+        <v>0.4134286567566304</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.4048034248037766</v>
@@ -1501,7 +1501,7 @@
         <v>0.3884690886345274</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3484313530306243</v>
+        <v>0.3484313530306244</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.4508128722214786</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4810891556069935</v>
+        <v>0.4811403085556748</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4762054638546112</v>
+        <v>0.4741775546761232</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4427924351348467</v>
+        <v>0.4425360953861062</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3928644985535062</v>
+        <v>0.3927356016223709</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.38955291449812</v>
+        <v>0.3879087839503673</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.370678676675275</v>
+        <v>0.369277684829926</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3726567401075619</v>
+        <v>0.3725376480626361</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.331264992140374</v>
+        <v>0.3318188038718735</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4392423510397703</v>
+        <v>0.4392075694891747</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4266565781353019</v>
+        <v>0.4271974739959462</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4126698064022437</v>
+        <v>0.4118370473710132</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.368516148533532</v>
+        <v>0.3664772635732704</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5156337809015434</v>
+        <v>0.5153137249295433</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5109782039185715</v>
+        <v>0.5091853137046209</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4775864286466835</v>
+        <v>0.4763645999084178</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4349665711752442</v>
+        <v>0.4349615793011988</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.423428132257563</v>
+        <v>0.4212746035787885</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4048792271026022</v>
+        <v>0.4035931239699035</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4064073821395736</v>
+        <v>0.4058643786937405</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3661020664444765</v>
+        <v>0.3641642251849094</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4645872642332995</v>
+        <v>0.4627319418545968</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.452435369474884</v>
+        <v>0.4517476932651723</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4368798775043488</v>
+        <v>0.4343797695702334</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3944621098706321</v>
+        <v>0.3944686709098641</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>240158</v>
+        <v>237892</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>229662</v>
+        <v>228648</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>199195</v>
+        <v>200272</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>156803</v>
+        <v>154874</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>152019</v>
+        <v>152212</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>155132</v>
+        <v>156442</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>165861</v>
+        <v>164245</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>134680</v>
+        <v>136346</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>401328</v>
+        <v>403599</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>397479</v>
+        <v>396103</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>378776</v>
+        <v>379212</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>303316</v>
+        <v>301256</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>282731</v>
+        <v>282997</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>272775</v>
+        <v>270782</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>242584</v>
+        <v>241752</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>200011</v>
+        <v>198656</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>186264</v>
+        <v>187198</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>192955</v>
+        <v>193844</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>204094</v>
+        <v>202854</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>165812</v>
+        <v>166968</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>458881</v>
+        <v>458530</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>454222</v>
+        <v>452784</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>436026</v>
+        <v>434717</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>356895</v>
+        <v>356775</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>174848</v>
+        <v>173476</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>216801</v>
+        <v>217009</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>166514</v>
+        <v>165258</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>123629</v>
+        <v>121798</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>208233</v>
+        <v>208119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>157587</v>
+        <v>157492</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>190543</v>
+        <v>190654</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>118807</v>
+        <v>118434</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>392623</v>
+        <v>393929</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>385423</v>
+        <v>386484</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>368026</v>
+        <v>369502</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>249153</v>
+        <v>251023</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>215204</v>
+        <v>210547</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>262126</v>
+        <v>260141</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>207838</v>
+        <v>204865</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>161202</v>
+        <v>157762</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>246380</v>
+        <v>247268</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>195230</v>
+        <v>196214</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>229538</v>
+        <v>229537</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>150229</v>
+        <v>149325</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>449420</v>
+        <v>448518</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>443559</v>
+        <v>444310</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>422660</v>
+        <v>426372</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>299189</v>
+        <v>300447</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>255333</v>
+        <v>257034</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>277277</v>
+        <v>273035</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>194959</v>
+        <v>195304</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>138749</v>
+        <v>138866</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>76057</v>
+        <v>76405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>77543</v>
+        <v>77995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>48726</v>
+        <v>47633</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>31943</v>
+        <v>31780</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>342434</v>
+        <v>341640</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>367356</v>
+        <v>365317</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>253399</v>
+        <v>252442</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>174901</v>
+        <v>175052</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>301041</v>
+        <v>303882</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>327590</v>
+        <v>327275</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>240994</v>
+        <v>239634</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>179698</v>
+        <v>179704</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>101878</v>
+        <v>101472</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>109959</v>
+        <v>111478</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>74238</v>
+        <v>73024</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>49892</v>
+        <v>49489</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>394799</v>
+        <v>392101</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>427858</v>
+        <v>425350</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>306936</v>
+        <v>305572</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>219834</v>
+        <v>218348</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>548031</v>
+        <v>548681</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>512348</v>
+        <v>515242</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>496147</v>
+        <v>492242</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>292375</v>
+        <v>296352</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>275374</v>
+        <v>274659</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>348999</v>
+        <v>346719</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>353347</v>
+        <v>352129</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>210875</v>
+        <v>210697</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>839835</v>
+        <v>844625</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>877794</v>
+        <v>879746</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>863155</v>
+        <v>860186</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>518602</v>
+        <v>516664</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>620183</v>
+        <v>619445</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>584148</v>
+        <v>582374</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>563826</v>
+        <v>561204</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>356795</v>
+        <v>354561</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>328038</v>
+        <v>326187</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>403419</v>
+        <v>404189</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>409506</v>
+        <v>409292</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>253391</v>
+        <v>253149</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>926840</v>
+        <v>930846</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>965812</v>
+        <v>965467</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>949729</v>
+        <v>950700</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>593206</v>
+        <v>592336</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>145431</v>
+        <v>145371</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>195880</v>
+        <v>194752</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>229691</v>
+        <v>229543</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>125888</v>
+        <v>128371</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>214753</v>
+        <v>214185</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>233820</v>
+        <v>236588</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>224595</v>
+        <v>222522</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>162284</v>
+        <v>163876</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>371068</v>
+        <v>373559</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>445250</v>
+        <v>443071</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>467590</v>
+        <v>467840</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>299757</v>
+        <v>299942</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>184734</v>
+        <v>182777</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>240459</v>
+        <v>239820</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>278413</v>
+        <v>278133</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>165905</v>
+        <v>169220</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>265563</v>
+        <v>261811</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>287001</v>
+        <v>289332</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>277959</v>
+        <v>273588</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>203510</v>
+        <v>200695</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>432374</v>
+        <v>430902</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>518429</v>
+        <v>514410</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>541194</v>
+        <v>537207</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>357393</v>
+        <v>357957</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>123309</v>
+        <v>122295</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>110094</v>
+        <v>110350</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>131213</v>
+        <v>131165</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>47966</v>
+        <v>50150</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>304238</v>
+        <v>304252</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>260854</v>
+        <v>259981</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>250586</v>
+        <v>253435</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>95035</v>
+        <v>94702</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>438537</v>
+        <v>442710</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>384458</v>
+        <v>384730</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>395299</v>
+        <v>396240</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>153190</v>
+        <v>151834</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>156981</v>
+        <v>156468</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>141818</v>
+        <v>143167</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>164727</v>
+        <v>166023</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>75060</v>
+        <v>76585</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>366650</v>
+        <v>367470</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>320920</v>
+        <v>320299</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>311837</v>
+        <v>309766</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>131512</v>
+        <v>131523</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>511352</v>
+        <v>511232</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>449830</v>
+        <v>449984</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>463786</v>
+        <v>467115</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>201748</v>
+        <v>202542</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1567839</v>
+        <v>1568006</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1627665</v>
+        <v>1620733</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1496204</v>
+        <v>1495338</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>960031</v>
+        <v>959716</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1308873</v>
+        <v>1303349</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1314823</v>
+        <v>1309853</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1310193</v>
+        <v>1309774</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>810211</v>
+        <v>811565</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2907289</v>
+        <v>2907059</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2971688</v>
+        <v>2975455</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2845291</v>
+        <v>2839549</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1801852</v>
+        <v>1791883</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1680418</v>
+        <v>1679375</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1746517</v>
+        <v>1740389</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1613774</v>
+        <v>1609646</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1062915</v>
+        <v>1062903</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1422691</v>
+        <v>1415456</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1436135</v>
+        <v>1431573</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1428854</v>
+        <v>1426945</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>895415</v>
+        <v>890676</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>3075044</v>
+        <v>3062764</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>3151239</v>
+        <v>3146449</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>3012216</v>
+        <v>2994978</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1928714</v>
+        <v>1928746</v>
       </c>
     </row>
     <row r="32">
